--- a/Documentação/(NOVO) Backlog .xlsx
+++ b/Documentação/(NOVO) Backlog .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\segunda-sprint\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20145" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>Requisito</t>
   </si>
@@ -33,51 +30,63 @@
     <t>Tamanho</t>
   </si>
   <si>
+    <t>RNF1</t>
+  </si>
+  <si>
+    <t>O sensor utilizado deverá ser o sensor de proximidade TCRT5000.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RF1.1</t>
+  </si>
+  <si>
+    <t>O sensor deverá ser configurado com o arduíno para captar os dados de lotação do metrô.</t>
+  </si>
+  <si>
     <t>Legendas</t>
   </si>
   <si>
-    <t>RNF1</t>
-  </si>
-  <si>
-    <t>O sensor utilizado deverá ser o sensor de proximidade TCRT5000.</t>
+    <t>RF2</t>
+  </si>
+  <si>
+    <t>O sensor deverá funcionar captando fluxo de pessoas durante todo o tempo de funcionamento do metrô/estação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>SENSOR</t>
   </si>
   <si>
-    <t>RF2</t>
-  </si>
-  <si>
-    <t>O sensor deverá funcionar captando fluxo de pessoas durante todo o tempo de funcionamento do metrô/estação.</t>
+    <t>RNF3</t>
+  </si>
+  <si>
+    <t>O sensor deverá ser alimentado por cabo de energia constantemente.</t>
   </si>
   <si>
     <t>SITE</t>
   </si>
   <si>
-    <t>RNF3</t>
-  </si>
-  <si>
-    <t>O sensor deverá ser alimentado por cabo de energia constantemente.</t>
+    <t>RF4</t>
+  </si>
+  <si>
+    <t>O sensor deverá mandar os dados para o banco de dados.</t>
   </si>
   <si>
     <t>BANCO DE DADOS</t>
   </si>
   <si>
-    <t>RF4</t>
-  </si>
-  <si>
-    <t>O sensor deverá mandar os dados para o banco de dados.</t>
+    <t>RNF5</t>
+  </si>
+  <si>
+    <t>O sensor deve cobrir locais estratégicos, com maior fluxo de pessoas, para a captação de dados.</t>
   </si>
   <si>
     <t>ESTAÇÃO</t>
   </si>
   <si>
-    <t>RNF5</t>
-  </si>
-  <si>
-    <t>O sensor deve cobrir locais estratégicos, com maior fluxo de pessoas, para a captação de dados.</t>
-  </si>
-  <si>
     <t>RNF6</t>
   </si>
   <si>
@@ -90,43 +99,43 @@
     <t>O sensor não pode ter seu infravermelho coberto, ele deverá estar livre.</t>
   </si>
   <si>
+    <t>RNF8</t>
+  </si>
+  <si>
+    <t>Os dados obtidos pelo sensor serão de manipulação exclusiva do metrô.</t>
+  </si>
+  <si>
     <t>ESSENCIAL</t>
   </si>
   <si>
-    <t>RNF8</t>
-  </si>
-  <si>
-    <t>Os dados obtidos pelo sensor serão de manipulação exclusiva do metrô.</t>
+    <t>RF10</t>
+  </si>
+  <si>
+    <t>O site institucional deverá conter as especficações dos requisitos 11,12,13,14...</t>
   </si>
   <si>
     <t>IMPORTANTE</t>
   </si>
   <si>
-    <t>RF10</t>
-  </si>
-  <si>
-    <t>O site institucional deverá conter as especficações dos requisitos 11,12,13,14...</t>
+    <t>RF11</t>
+  </si>
+  <si>
+    <t>Página de login para o administrador.</t>
   </si>
   <si>
     <t>DESEJÁVEL</t>
   </si>
   <si>
-    <t>RF11</t>
-  </si>
-  <si>
-    <t>Deverá ter uma página de login para o administrador.</t>
-  </si>
-  <si>
     <t>RF12</t>
   </si>
   <si>
-    <t>Deverá ter um botão para login.</t>
+    <t>Um botão para login.</t>
   </si>
   <si>
     <t>RF13</t>
   </si>
   <si>
-    <t>Deverá ter a opção (botão) de recuperação de senha que levará o usuário para a página de recuperação.</t>
+    <t>A opção (botão) de recuperação de senha que levará o usuário para a página de recuperação.</t>
   </si>
   <si>
     <t>RF13.1</t>
@@ -138,31 +147,31 @@
     <t>RF14</t>
   </si>
   <si>
-    <t>O site deverá ter uma página para consulta de dados e informações obtidas pelo sensor.</t>
+    <t>Página para consulta de dados e informações obtidas pelo sensor.</t>
   </si>
   <si>
     <t>RF14.1</t>
   </si>
   <si>
-    <t>As informações deverão ser mostradas de forma dinâmica para o usuário.</t>
+    <t>Informações mostradas de forma dinâmica para o usuário.</t>
   </si>
   <si>
     <t>RF15</t>
   </si>
   <si>
-    <t>Deverá ter página para visualização de empresas.</t>
+    <t>Página para visualização de empresas.</t>
   </si>
   <si>
     <t>RF16</t>
   </si>
   <si>
-    <t>Deverá ter página para consulta, exclusão e alteração de cadastro.</t>
+    <t>Página para consulta, exclusão e alteração de cadastro.</t>
   </si>
   <si>
     <t>RNF18</t>
   </si>
   <si>
-    <t>O usuário do site será o funcionário da empresa do Metrô responsável pelo marketing.</t>
+    <t>O usuário do site será o funcionário escolhido pela empresa do Metrô.</t>
   </si>
   <si>
     <t>R19</t>
@@ -180,7 +189,16 @@
     <t>R21</t>
   </si>
   <si>
-    <t>R22</t>
+    <t>A modelagem de dados (DER) deverá conter às entidades referentes à tabela.</t>
+  </si>
+  <si>
+    <t>RNF22</t>
+  </si>
+  <si>
+    <t>A estação deverá ser preparada para a inclusão dos sensores , de modo que os mesmos  fiquem posicionados em</t>
+  </si>
+  <si>
+    <t>locais estratégicos para a melhor captação de fluxo de pessoas.</t>
   </si>
   <si>
     <t>R23</t>
@@ -235,13 +253,16 @@
   </si>
   <si>
     <t>R40</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +301,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -291,8 +317,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -301,7 +326,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,20 +353,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE69138"/>
+        <bgColor rgb="FFE69138"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor rgb="FFA9D08E"/>
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -358,26 +395,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
+        <fgColor rgb="FFCC4125"/>
+        <bgColor rgb="FFCC4125"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF6B26B"/>
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC4125"/>
-        <bgColor rgb="FFCC4125"/>
       </patternFill>
     </fill>
     <fill>
@@ -439,21 +470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -529,68 +545,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,463 +892,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="83" customWidth="1"/>
+    <col min="2" max="2" width="89.375" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="6"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="17"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="41"/>
+      <c r="F14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="50"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="17"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-      <c r="F12" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="17"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="17"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="41"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="41"/>
-    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="41"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B21" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="41"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="57"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="41"/>
+      <c r="A23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="41"/>
+      <c r="A24" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="68" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="A28" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="A29" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="A30" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="A31" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="A32" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="A33" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
+      <c r="A34" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="A35" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="A36" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
+      <c r="A37" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="A38" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="A39" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="A40" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A41" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+    </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2222,7 +2356,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A24:A25"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="1.8859537719075441" bottom="7.8738569977139967" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="portrait"/>
 </worksheet>

--- a/Documentação/(NOVO) Backlog .xlsx
+++ b/Documentação/(NOVO) Backlog .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\segunda-sprint\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20145" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
   <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
